--- a/Code/Results/Cases/Case_0_188/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_188/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.011528115872237</v>
+        <v>1.057090308610182</v>
       </c>
       <c r="D2">
-        <v>1.024151692726697</v>
+        <v>1.062861740563521</v>
       </c>
       <c r="E2">
-        <v>1.015923991666057</v>
+        <v>1.05326764887379</v>
       </c>
       <c r="F2">
-        <v>1.030046873171658</v>
+        <v>1.070573051813128</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.047412337084071</v>
+        <v>1.041643376295184</v>
       </c>
       <c r="J2">
-        <v>1.033369406510975</v>
+        <v>1.06208854356696</v>
       </c>
       <c r="K2">
-        <v>1.035284505665727</v>
+        <v>1.065581940082656</v>
       </c>
       <c r="L2">
-        <v>1.027165849605889</v>
+        <v>1.056014088241574</v>
       </c>
       <c r="M2">
-        <v>1.04110289564795</v>
+        <v>1.073272529633108</v>
       </c>
       <c r="N2">
-        <v>1.03483690959737</v>
+        <v>1.063596831122084</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.018669776522986</v>
+        <v>1.058531525792873</v>
       </c>
       <c r="D3">
-        <v>1.030413817223992</v>
+        <v>1.064171462249029</v>
       </c>
       <c r="E3">
-        <v>1.021862210333861</v>
+        <v>1.054510454566504</v>
       </c>
       <c r="F3">
-        <v>1.036636379526449</v>
+        <v>1.071958476059719</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.04930745162491</v>
+        <v>1.04193817245341</v>
       </c>
       <c r="J3">
-        <v>1.038664107867945</v>
+        <v>1.063179726572321</v>
       </c>
       <c r="K3">
-        <v>1.040671792542847</v>
+        <v>1.06670531745953</v>
       </c>
       <c r="L3">
-        <v>1.032222797892057</v>
+        <v>1.057068803768172</v>
       </c>
       <c r="M3">
-        <v>1.046821006091484</v>
+        <v>1.074472934449262</v>
       </c>
       <c r="N3">
-        <v>1.040139130037556</v>
+        <v>1.064689563732473</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.023159450691704</v>
+        <v>1.059463024570496</v>
       </c>
       <c r="D4">
-        <v>1.034356008168185</v>
+        <v>1.065018175714777</v>
       </c>
       <c r="E4">
-        <v>1.025601319134137</v>
+        <v>1.055313936493429</v>
       </c>
       <c r="F4">
-        <v>1.040785411911527</v>
+        <v>1.072854244321519</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.050485777886023</v>
+        <v>1.042127031040905</v>
       </c>
       <c r="J4">
-        <v>1.041988731919581</v>
+        <v>1.063884289154497</v>
       </c>
       <c r="K4">
-        <v>1.044056741441507</v>
+        <v>1.067430905465773</v>
       </c>
       <c r="L4">
-        <v>1.035400273947094</v>
+        <v>1.057750019816613</v>
       </c>
       <c r="M4">
-        <v>1.050415304239271</v>
+        <v>1.075248447199305</v>
       </c>
       <c r="N4">
-        <v>1.043468475436685</v>
+        <v>1.06539512687433</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.025017113901227</v>
+        <v>1.059854377441247</v>
       </c>
       <c r="D5">
-        <v>1.035988371796216</v>
+        <v>1.065373955635806</v>
       </c>
       <c r="E5">
-        <v>1.027149778332507</v>
+        <v>1.055651557686768</v>
       </c>
       <c r="F5">
-        <v>1.042503605230869</v>
+        <v>1.073230663945246</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.05097013439896</v>
+        <v>1.042205975000232</v>
       </c>
       <c r="J5">
-        <v>1.043363330949267</v>
+        <v>1.064180130882346</v>
       </c>
       <c r="K5">
-        <v>1.045456804739518</v>
+        <v>1.067735632612595</v>
       </c>
       <c r="L5">
-        <v>1.036714539174893</v>
+        <v>1.058036106296489</v>
       </c>
       <c r="M5">
-        <v>1.05190231181363</v>
+        <v>1.075574182743735</v>
       </c>
       <c r="N5">
-        <v>1.044845026554662</v>
+        <v>1.065691388731366</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.025327322749518</v>
+        <v>1.059920072863525</v>
       </c>
       <c r="D6">
-        <v>1.03626102826689</v>
+        <v>1.065433682317604</v>
       </c>
       <c r="E6">
-        <v>1.027408430775636</v>
+        <v>1.05570823635478</v>
       </c>
       <c r="F6">
-        <v>1.042790608756886</v>
+        <v>1.07329385713245</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.051050827094845</v>
+        <v>1.042219203559124</v>
       </c>
       <c r="J6">
-        <v>1.043592812404788</v>
+        <v>1.064229783230785</v>
       </c>
       <c r="K6">
-        <v>1.045690567958377</v>
+        <v>1.067786779578932</v>
       </c>
       <c r="L6">
-        <v>1.036933977799642</v>
+        <v>1.05808412418411</v>
       </c>
       <c r="M6">
-        <v>1.052150612578847</v>
+        <v>1.075628858293247</v>
       </c>
       <c r="N6">
-        <v>1.045074833900171</v>
+        <v>1.065741111591835</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.023184387837955</v>
+        <v>1.059468254818797</v>
       </c>
       <c r="D7">
-        <v>1.034377916143635</v>
+        <v>1.065022930358998</v>
       </c>
       <c r="E7">
-        <v>1.025622100302323</v>
+        <v>1.055318448438171</v>
       </c>
       <c r="F7">
-        <v>1.040808471085466</v>
+        <v>1.072859274687065</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.050492292561992</v>
+        <v>1.042128087669158</v>
       </c>
       <c r="J7">
-        <v>1.042007188518237</v>
+        <v>1.063888243601403</v>
       </c>
       <c r="K7">
-        <v>1.044075537882053</v>
+        <v>1.067434978458028</v>
       </c>
       <c r="L7">
-        <v>1.035417918456716</v>
+        <v>1.057753843679467</v>
       </c>
       <c r="M7">
-        <v>1.050435266543134</v>
+        <v>1.075252800827819</v>
       </c>
       <c r="N7">
-        <v>1.043486958245828</v>
+        <v>1.065399086937004</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.01396994476824</v>
+        <v>1.057577598725911</v>
       </c>
       <c r="D8">
-        <v>1.026291598579268</v>
+        <v>1.06330452805065</v>
       </c>
       <c r="E8">
-        <v>1.017953030504203</v>
+        <v>1.053687807572363</v>
       </c>
       <c r="F8">
-        <v>1.032298497546197</v>
+        <v>1.071041408964861</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.04806301794341</v>
+        <v>1.041743397033284</v>
       </c>
       <c r="J8">
-        <v>1.035180526377958</v>
+        <v>1.062457628233925</v>
       </c>
       <c r="K8">
-        <v>1.037126831666829</v>
+        <v>1.065961864922033</v>
       </c>
       <c r="L8">
-        <v>1.028895186235055</v>
+        <v>1.05637079653136</v>
       </c>
       <c r="M8">
-        <v>1.043058040788335</v>
+        <v>1.073678469226258</v>
       </c>
       <c r="N8">
-        <v>1.036650601462281</v>
+        <v>1.06396643993161</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9966430933772064</v>
+        <v>1.054237604341073</v>
       </c>
       <c r="D9">
-        <v>1.011134217011934</v>
+        <v>1.060270429924645</v>
       </c>
       <c r="E9">
-        <v>1.003585015552634</v>
+        <v>1.05080889042359</v>
       </c>
       <c r="F9">
-        <v>1.016352868021171</v>
+        <v>1.067832569154875</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.043392160534058</v>
+        <v>1.041050956977599</v>
       </c>
       <c r="J9">
-        <v>1.022314952124587</v>
+        <v>1.059924983934452</v>
       </c>
       <c r="K9">
-        <v>1.024049195767528</v>
+        <v>1.063355815353896</v>
       </c>
       <c r="L9">
-        <v>1.016620194932614</v>
+        <v>1.053923904581825</v>
       </c>
       <c r="M9">
-        <v>1.029186088112857</v>
+        <v>1.070894685820403</v>
       </c>
       <c r="N9">
-        <v>1.023766756617768</v>
+        <v>1.061430198986734</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9842291278557046</v>
+        <v>1.052004917945008</v>
       </c>
       <c r="D10">
-        <v>1.000313768659982</v>
+        <v>1.058243342871945</v>
       </c>
       <c r="E10">
-        <v>0.9933339365969949</v>
+        <v>1.048885639525954</v>
       </c>
       <c r="F10">
-        <v>1.004973499920532</v>
+        <v>1.065689324313388</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.039979986910207</v>
+        <v>1.040579453998969</v>
       </c>
       <c r="J10">
-        <v>1.013082743611925</v>
+        <v>1.058228415995733</v>
       </c>
       <c r="K10">
-        <v>1.014677360226772</v>
+        <v>1.06161130672505</v>
       </c>
       <c r="L10">
-        <v>1.007824601057193</v>
+        <v>1.052285822262252</v>
       </c>
       <c r="M10">
-        <v>1.019253533189281</v>
+        <v>1.06903209554026</v>
       </c>
       <c r="N10">
-        <v>1.014521437310069</v>
+        <v>1.059731221726943</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9786152692535703</v>
+        <v>1.051036629709987</v>
       </c>
       <c r="D11">
-        <v>0.995431477772414</v>
+        <v>1.057364494790368</v>
       </c>
       <c r="E11">
-        <v>0.9887101777050974</v>
+        <v>1.04805184942564</v>
       </c>
       <c r="F11">
-        <v>0.999839869737111</v>
+        <v>1.064760254756787</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.038422407628783</v>
+        <v>1.040372926629601</v>
       </c>
       <c r="J11">
-        <v>1.008905555608879</v>
+        <v>1.057491794429183</v>
       </c>
       <c r="K11">
-        <v>1.010440067084623</v>
+        <v>1.060854162535515</v>
       </c>
       <c r="L11">
-        <v>1.003848191077713</v>
+        <v>1.05157484233472</v>
       </c>
       <c r="M11">
-        <v>1.014764806512221</v>
+        <v>1.068223914472994</v>
       </c>
       <c r="N11">
-        <v>1.010338317220928</v>
+        <v>1.058993554073277</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9764908752368214</v>
+        <v>1.050676728819026</v>
       </c>
       <c r="D12">
-        <v>0.9935857250463642</v>
+        <v>1.057037879708207</v>
       </c>
       <c r="E12">
-        <v>0.9869624300095425</v>
+        <v>1.047741985787024</v>
       </c>
       <c r="F12">
-        <v>0.997899221414111</v>
+        <v>1.064414996220993</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.037830909482086</v>
+        <v>1.040295856396289</v>
       </c>
       <c r="J12">
-        <v>1.00732461897575</v>
+        <v>1.057217875297328</v>
       </c>
       <c r="K12">
-        <v>1.008836852897321</v>
+        <v>1.060572655843239</v>
       </c>
       <c r="L12">
-        <v>1.002343745637753</v>
+        <v>1.051310495643311</v>
       </c>
       <c r="M12">
-        <v>1.013066780001971</v>
+        <v>1.067923464170971</v>
       </c>
       <c r="N12">
-        <v>1.008755135476444</v>
+        <v>1.058719245944836</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9769483948477619</v>
+        <v>1.050753939554776</v>
       </c>
       <c r="D13">
-        <v>0.9939831511180683</v>
+        <v>1.057107947615643</v>
       </c>
       <c r="E13">
-        <v>0.9873387412816969</v>
+        <v>1.047808459771406</v>
       </c>
       <c r="F13">
-        <v>0.9983170748390979</v>
+        <v>1.064489062718199</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.037958389459405</v>
+        <v>1.040312404394919</v>
       </c>
       <c r="J13">
-        <v>1.007665104263126</v>
+        <v>1.057276645769538</v>
       </c>
       <c r="K13">
-        <v>1.009182114697056</v>
+        <v>1.060633052268521</v>
       </c>
       <c r="L13">
-        <v>1.002667734058916</v>
+        <v>1.051367210616736</v>
       </c>
       <c r="M13">
-        <v>1.013432445667926</v>
+        <v>1.067987923446282</v>
       </c>
       <c r="N13">
-        <v>1.009096104291982</v>
+        <v>1.058778099877857</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.978440485677894</v>
+        <v>1.051006885036108</v>
       </c>
       <c r="D14">
-        <v>0.9952795817827137</v>
+        <v>1.057337500222503</v>
       </c>
       <c r="E14">
-        <v>0.9885663414763249</v>
+        <v>1.048026239230729</v>
       </c>
       <c r="F14">
-        <v>0.9996801618501607</v>
+        <v>1.064731718891918</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.038373783933431</v>
+        <v>1.040366563267941</v>
       </c>
       <c r="J14">
-        <v>1.008775488198332</v>
+        <v>1.05746915844177</v>
       </c>
       <c r="K14">
-        <v>1.010308157251038</v>
+        <v>1.060830898634723</v>
       </c>
       <c r="L14">
-        <v>1.003724406470319</v>
+        <v>1.051552996627001</v>
       </c>
       <c r="M14">
-        <v>1.014625089154853</v>
+        <v>1.068199084408292</v>
       </c>
       <c r="N14">
-        <v>1.01020806509974</v>
+        <v>1.058970885940165</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.049999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9793545169196977</v>
+        <v>1.051162701671954</v>
       </c>
       <c r="D15">
-        <v>0.9960739965328508</v>
+        <v>1.057478912229639</v>
       </c>
       <c r="E15">
-        <v>0.9893186147347947</v>
+        <v>1.048160399401231</v>
       </c>
       <c r="F15">
-        <v>1.000515437746152</v>
+        <v>1.064881205892096</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.038627977801586</v>
+        <v>1.040399885010505</v>
       </c>
       <c r="J15">
-        <v>1.009455668465332</v>
+        <v>1.057587731271919</v>
       </c>
       <c r="K15">
-        <v>1.010997991541789</v>
+        <v>1.060952762427884</v>
       </c>
       <c r="L15">
-        <v>1.004371751720446</v>
+        <v>1.051667431309524</v>
       </c>
       <c r="M15">
-        <v>1.01535576662145</v>
+        <v>1.068329153579021</v>
       </c>
       <c r="N15">
-        <v>1.010889211300736</v>
+        <v>1.059089627157333</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9845964015629941</v>
+        <v>1.05206914740861</v>
       </c>
       <c r="D16">
-        <v>1.00063342064435</v>
+        <v>1.058301645344497</v>
       </c>
       <c r="E16">
-        <v>0.9936366975903682</v>
+        <v>1.048940953714216</v>
       </c>
       <c r="F16">
-        <v>1.005309624779005</v>
+        <v>1.065750961385504</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.040081595680318</v>
+        <v>1.040593110600924</v>
       </c>
       <c r="J16">
-        <v>1.01335599112138</v>
+        <v>1.058277260642248</v>
       </c>
       <c r="K16">
-        <v>1.014954603749245</v>
+        <v>1.061661518362744</v>
       </c>
       <c r="L16">
-        <v>1.008084783099199</v>
+        <v>1.052332971867687</v>
       </c>
       <c r="M16">
-        <v>1.019547271532443</v>
+        <v>1.069085696270805</v>
       </c>
       <c r="N16">
-        <v>1.014795072862329</v>
+        <v>1.059780135738459</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9878184191253109</v>
+        <v>1.052637324832394</v>
       </c>
       <c r="D17">
-        <v>1.003438915164012</v>
+        <v>1.058817424032764</v>
       </c>
       <c r="E17">
-        <v>0.9962941310239064</v>
+        <v>1.049430300833589</v>
       </c>
       <c r="F17">
-        <v>1.008259792654496</v>
+        <v>1.066296255986814</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.040971360876368</v>
+        <v>1.040713681953296</v>
       </c>
       <c r="J17">
-        <v>1.015752902358333</v>
+        <v>1.058709246074168</v>
       </c>
       <c r="K17">
-        <v>1.01738691522073</v>
+        <v>1.062105627295932</v>
       </c>
       <c r="L17">
-        <v>1.010367451055676</v>
+        <v>1.052749994877568</v>
       </c>
       <c r="M17">
-        <v>1.022124531314454</v>
+        <v>1.06955980536431</v>
       </c>
       <c r="N17">
-        <v>1.017195387988168</v>
+        <v>1.060212734639242</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9896749979546635</v>
+        <v>1.052968586908785</v>
       </c>
       <c r="D18">
-        <v>1.005056504443478</v>
+        <v>1.059118162682963</v>
       </c>
       <c r="E18">
-        <v>0.9978265029566309</v>
+        <v>1.049715631652577</v>
       </c>
       <c r="F18">
-        <v>1.009960877926826</v>
+        <v>1.066614218087229</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.041482685951563</v>
+        <v>1.040783781257923</v>
       </c>
       <c r="J18">
-        <v>1.017133827399064</v>
+        <v>1.0589610235889</v>
       </c>
       <c r="K18">
-        <v>1.018788523145193</v>
+        <v>1.062364499015788</v>
       </c>
       <c r="L18">
-        <v>1.011682859555329</v>
+        <v>1.052993075623433</v>
       </c>
       <c r="M18">
-        <v>1.023609860550403</v>
+        <v>1.069836184685141</v>
       </c>
       <c r="N18">
-        <v>1.018578274100851</v>
+        <v>1.060464869706923</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9903042754442971</v>
+        <v>1.053081514132255</v>
       </c>
       <c r="D19">
-        <v>1.005604945968243</v>
+        <v>1.059220688923812</v>
       </c>
       <c r="E19">
-        <v>0.9983460767354049</v>
+        <v>1.049812905777699</v>
       </c>
       <c r="F19">
-        <v>1.010537642419355</v>
+        <v>1.066722618330384</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.041655761246133</v>
+        <v>1.040807644699909</v>
       </c>
       <c r="J19">
-        <v>1.01760184485892</v>
+        <v>1.05904684075567</v>
       </c>
       <c r="K19">
-        <v>1.019263598943446</v>
+        <v>1.062452738985767</v>
       </c>
       <c r="L19">
-        <v>1.012128723164337</v>
+        <v>1.053075932588867</v>
       </c>
       <c r="M19">
-        <v>1.024113346729477</v>
+        <v>1.069930395831292</v>
       </c>
       <c r="N19">
-        <v>1.019046956199183</v>
+        <v>1.060550808743914</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9874751049648337</v>
+        <v>1.052576379946071</v>
       </c>
       <c r="D20">
-        <v>1.003139875765079</v>
+        <v>1.058762096900006</v>
       </c>
       <c r="E20">
-        <v>0.9960108576491844</v>
+        <v>1.049377808597445</v>
       </c>
       <c r="F20">
-        <v>1.007945324113402</v>
+        <v>1.066237761321375</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.040876696028241</v>
+        <v>1.040700769375926</v>
       </c>
       <c r="J20">
-        <v>1.01549752680651</v>
+        <v>1.058662918051261</v>
       </c>
       <c r="K20">
-        <v>1.017127738024118</v>
+        <v>1.062057996180687</v>
       </c>
       <c r="L20">
-        <v>1.010124215879422</v>
+        <v>1.052705269017414</v>
       </c>
       <c r="M20">
-        <v>1.021849888654623</v>
+        <v>1.069508954585146</v>
       </c>
       <c r="N20">
-        <v>1.01693964977377</v>
+        <v>1.060166340825228</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9780022118302046</v>
+        <v>1.050932405455476</v>
       </c>
       <c r="D21">
-        <v>0.9948987286226116</v>
+        <v>1.057269907488263</v>
       </c>
       <c r="E21">
-        <v>0.9882057011581382</v>
+        <v>1.047962112980026</v>
       </c>
       <c r="F21">
-        <v>0.9992797236652173</v>
+        <v>1.064660267181719</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.038251825818546</v>
+        <v>1.040350624692007</v>
       </c>
       <c r="J21">
-        <v>1.008449338276112</v>
+        <v>1.05741247672131</v>
       </c>
       <c r="K21">
-        <v>1.009977394966723</v>
+        <v>1.060772645295603</v>
       </c>
       <c r="L21">
-        <v>1.003414019113095</v>
+        <v>1.051498294412969</v>
       </c>
       <c r="M21">
-        <v>1.014274754763462</v>
+        <v>1.068136909874776</v>
       </c>
       <c r="N21">
-        <v>1.00988145200722</v>
+        <v>1.05891412372516</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9718177097171986</v>
+        <v>1.049897407195317</v>
       </c>
       <c r="D22">
-        <v>0.989529018095997</v>
+        <v>1.056330712143423</v>
       </c>
       <c r="E22">
-        <v>0.9831216434540619</v>
+        <v>1.047071098765994</v>
       </c>
       <c r="F22">
-        <v>0.9936341695010025</v>
+        <v>1.063667501072309</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.036526038586354</v>
+        <v>1.040128409809463</v>
       </c>
       <c r="J22">
-        <v>1.003846696446428</v>
+        <v>1.056624506934358</v>
       </c>
       <c r="K22">
-        <v>1.0053108007469</v>
+        <v>1.059962931619202</v>
       </c>
       <c r="L22">
-        <v>0.9990350466123349</v>
+        <v>1.050737931745628</v>
       </c>
       <c r="M22">
-        <v>1.009332798412443</v>
+        <v>1.067272767829404</v>
       </c>
       <c r="N22">
-        <v>1.005272273898207</v>
+        <v>1.05812503493073</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9751191156436907</v>
+        <v>1.050446211248638</v>
       </c>
       <c r="D23">
-        <v>0.9923944182856647</v>
+        <v>1.056828693717137</v>
       </c>
       <c r="E23">
-        <v>0.9858344570108533</v>
+        <v>1.047543530267753</v>
       </c>
       <c r="F23">
-        <v>0.9966467002512612</v>
+        <v>1.064193875591391</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.037448395806007</v>
+        <v>1.040246406430199</v>
       </c>
       <c r="J23">
-        <v>1.006303737690629</v>
+        <v>1.057042393908485</v>
       </c>
       <c r="K23">
-        <v>1.007801719864526</v>
+        <v>1.060392325997131</v>
       </c>
       <c r="L23">
-        <v>1.001372402334076</v>
+        <v>1.05114115720049</v>
       </c>
       <c r="M23">
-        <v>1.011970521314082</v>
+        <v>1.067731008266172</v>
       </c>
       <c r="N23">
-        <v>1.007732804422802</v>
+        <v>1.058543515352292</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9876303039747238</v>
+        <v>1.052603918768945</v>
       </c>
       <c r="D24">
-        <v>1.003275056723491</v>
+        <v>1.058787097178689</v>
       </c>
       <c r="E24">
-        <v>0.9961389110968878</v>
+        <v>1.049401527879768</v>
       </c>
       <c r="F24">
-        <v>1.00808747957584</v>
+        <v>1.066264192849137</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.040919494602076</v>
+        <v>1.040706604718223</v>
       </c>
       <c r="J24">
-        <v>1.015612972857891</v>
+        <v>1.058683852285078</v>
       </c>
       <c r="K24">
-        <v>1.017244901768102</v>
+        <v>1.062079519155486</v>
       </c>
       <c r="L24">
-        <v>1.010234172768988</v>
+        <v>1.052725479208419</v>
       </c>
       <c r="M24">
-        <v>1.021974043115016</v>
+        <v>1.069531932359646</v>
       </c>
       <c r="N24">
-        <v>1.017055259771785</v>
+        <v>1.060187304788058</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.001264164829579</v>
+        <v>1.055102107777775</v>
       </c>
       <c r="D25">
-        <v>1.015170507303234</v>
+        <v>1.061055563619789</v>
       </c>
       <c r="E25">
-        <v>1.00741017427545</v>
+        <v>1.051553840453558</v>
       </c>
       <c r="F25">
-        <v>1.020598400881007</v>
+        <v>1.068662817196399</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.04464939091026</v>
+        <v>1.04123170397125</v>
       </c>
       <c r="J25">
-        <v>1.025749059554634</v>
+        <v>1.060581148449073</v>
       </c>
       <c r="K25">
-        <v>1.027537798375609</v>
+        <v>1.064030781295316</v>
       </c>
       <c r="L25">
-        <v>1.019894535716055</v>
+        <v>1.05455766926246</v>
       </c>
       <c r="M25">
-        <v>1.032885152240207</v>
+        <v>1.071615527434336</v>
       </c>
       <c r="N25">
-        <v>1.027205740874263</v>
+        <v>1.062087295330229</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_188/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_188/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.057090308610182</v>
+        <v>1.011528115872236</v>
       </c>
       <c r="D2">
-        <v>1.062861740563521</v>
+        <v>1.024151692726697</v>
       </c>
       <c r="E2">
-        <v>1.05326764887379</v>
+        <v>1.015923991666057</v>
       </c>
       <c r="F2">
-        <v>1.070573051813128</v>
+        <v>1.030046873171657</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.041643376295184</v>
+        <v>1.04741233708407</v>
       </c>
       <c r="J2">
-        <v>1.06208854356696</v>
+        <v>1.033369406510974</v>
       </c>
       <c r="K2">
-        <v>1.065581940082656</v>
+        <v>1.035284505665726</v>
       </c>
       <c r="L2">
-        <v>1.056014088241574</v>
+        <v>1.027165849605888</v>
       </c>
       <c r="M2">
-        <v>1.073272529633108</v>
+        <v>1.041102895647949</v>
       </c>
       <c r="N2">
-        <v>1.063596831122084</v>
+        <v>1.03483690959737</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.058531525792873</v>
+        <v>1.018669776522987</v>
       </c>
       <c r="D3">
-        <v>1.064171462249029</v>
+        <v>1.030413817223993</v>
       </c>
       <c r="E3">
-        <v>1.054510454566504</v>
+        <v>1.021862210333861</v>
       </c>
       <c r="F3">
-        <v>1.071958476059719</v>
+        <v>1.036636379526449</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.04193817245341</v>
+        <v>1.04930745162491</v>
       </c>
       <c r="J3">
-        <v>1.063179726572321</v>
+        <v>1.038664107867945</v>
       </c>
       <c r="K3">
-        <v>1.06670531745953</v>
+        <v>1.040671792542847</v>
       </c>
       <c r="L3">
-        <v>1.057068803768172</v>
+        <v>1.032222797892057</v>
       </c>
       <c r="M3">
-        <v>1.074472934449262</v>
+        <v>1.046821006091484</v>
       </c>
       <c r="N3">
-        <v>1.064689563732473</v>
+        <v>1.040139130037556</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.059463024570496</v>
+        <v>1.023159450691703</v>
       </c>
       <c r="D4">
-        <v>1.065018175714777</v>
+        <v>1.034356008168185</v>
       </c>
       <c r="E4">
-        <v>1.055313936493429</v>
+        <v>1.025601319134137</v>
       </c>
       <c r="F4">
-        <v>1.072854244321519</v>
+        <v>1.040785411911527</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.042127031040905</v>
+        <v>1.050485777886023</v>
       </c>
       <c r="J4">
-        <v>1.063884289154497</v>
+        <v>1.04198873191958</v>
       </c>
       <c r="K4">
-        <v>1.067430905465773</v>
+        <v>1.044056741441506</v>
       </c>
       <c r="L4">
-        <v>1.057750019816613</v>
+        <v>1.035400273947093</v>
       </c>
       <c r="M4">
-        <v>1.075248447199305</v>
+        <v>1.050415304239271</v>
       </c>
       <c r="N4">
-        <v>1.06539512687433</v>
+        <v>1.043468475436684</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.059854377441247</v>
+        <v>1.025017113901227</v>
       </c>
       <c r="D5">
-        <v>1.065373955635806</v>
+        <v>1.035988371796216</v>
       </c>
       <c r="E5">
-        <v>1.055651557686768</v>
+        <v>1.027149778332507</v>
       </c>
       <c r="F5">
-        <v>1.073230663945246</v>
+        <v>1.042503605230869</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.042205975000232</v>
+        <v>1.05097013439896</v>
       </c>
       <c r="J5">
-        <v>1.064180130882346</v>
+        <v>1.043363330949266</v>
       </c>
       <c r="K5">
-        <v>1.067735632612595</v>
+        <v>1.045456804739518</v>
       </c>
       <c r="L5">
-        <v>1.058036106296489</v>
+        <v>1.036714539174892</v>
       </c>
       <c r="M5">
-        <v>1.075574182743735</v>
+        <v>1.05190231181363</v>
       </c>
       <c r="N5">
-        <v>1.065691388731366</v>
+        <v>1.044845026554661</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.059920072863525</v>
+        <v>1.025327322749518</v>
       </c>
       <c r="D6">
-        <v>1.065433682317604</v>
+        <v>1.03626102826689</v>
       </c>
       <c r="E6">
-        <v>1.05570823635478</v>
+        <v>1.027408430775635</v>
       </c>
       <c r="F6">
-        <v>1.07329385713245</v>
+        <v>1.042790608756885</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.042219203559124</v>
+        <v>1.051050827094845</v>
       </c>
       <c r="J6">
-        <v>1.064229783230785</v>
+        <v>1.043592812404788</v>
       </c>
       <c r="K6">
-        <v>1.067786779578932</v>
+        <v>1.045690567958377</v>
       </c>
       <c r="L6">
-        <v>1.05808412418411</v>
+        <v>1.036933977799642</v>
       </c>
       <c r="M6">
-        <v>1.075628858293247</v>
+        <v>1.052150612578847</v>
       </c>
       <c r="N6">
-        <v>1.065741111591835</v>
+        <v>1.045074833900171</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.059468254818797</v>
+        <v>1.023184387837953</v>
       </c>
       <c r="D7">
-        <v>1.065022930358998</v>
+        <v>1.034377916143633</v>
       </c>
       <c r="E7">
-        <v>1.055318448438171</v>
+        <v>1.025622100302322</v>
       </c>
       <c r="F7">
-        <v>1.072859274687065</v>
+        <v>1.040808471085464</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.042128087669158</v>
+        <v>1.050492292561992</v>
       </c>
       <c r="J7">
-        <v>1.063888243601403</v>
+        <v>1.042007188518235</v>
       </c>
       <c r="K7">
-        <v>1.067434978458028</v>
+        <v>1.044075537882051</v>
       </c>
       <c r="L7">
-        <v>1.057753843679467</v>
+        <v>1.035417918456714</v>
       </c>
       <c r="M7">
-        <v>1.075252800827819</v>
+        <v>1.050435266543132</v>
       </c>
       <c r="N7">
-        <v>1.065399086937004</v>
+        <v>1.043486958245826</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.057577598725911</v>
+        <v>1.013969944768238</v>
       </c>
       <c r="D8">
-        <v>1.06330452805065</v>
+        <v>1.026291598579266</v>
       </c>
       <c r="E8">
-        <v>1.053687807572363</v>
+        <v>1.017953030504201</v>
       </c>
       <c r="F8">
-        <v>1.071041408964861</v>
+        <v>1.032298497546195</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.041743397033284</v>
+        <v>1.04806301794341</v>
       </c>
       <c r="J8">
-        <v>1.062457628233925</v>
+        <v>1.035180526377956</v>
       </c>
       <c r="K8">
-        <v>1.065961864922033</v>
+        <v>1.037126831666827</v>
       </c>
       <c r="L8">
-        <v>1.05637079653136</v>
+        <v>1.028895186235053</v>
       </c>
       <c r="M8">
-        <v>1.073678469226258</v>
+        <v>1.043058040788334</v>
       </c>
       <c r="N8">
-        <v>1.06396643993161</v>
+        <v>1.036650601462279</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.054237604341073</v>
+        <v>0.9966430933772065</v>
       </c>
       <c r="D9">
-        <v>1.060270429924645</v>
+        <v>1.011134217011935</v>
       </c>
       <c r="E9">
-        <v>1.05080889042359</v>
+        <v>1.003585015552634</v>
       </c>
       <c r="F9">
-        <v>1.067832569154875</v>
+        <v>1.016352868021172</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.041050956977599</v>
+        <v>1.043392160534058</v>
       </c>
       <c r="J9">
-        <v>1.059924983934452</v>
+        <v>1.022314952124587</v>
       </c>
       <c r="K9">
-        <v>1.063355815353896</v>
+        <v>1.024049195767528</v>
       </c>
       <c r="L9">
-        <v>1.053923904581825</v>
+        <v>1.016620194932614</v>
       </c>
       <c r="M9">
-        <v>1.070894685820403</v>
+        <v>1.029186088112857</v>
       </c>
       <c r="N9">
-        <v>1.061430198986734</v>
+        <v>1.023766756617768</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.052004917945008</v>
+        <v>0.9842291278557056</v>
       </c>
       <c r="D10">
-        <v>1.058243342871945</v>
+        <v>1.000313768659983</v>
       </c>
       <c r="E10">
-        <v>1.048885639525954</v>
+        <v>0.9933339365969959</v>
       </c>
       <c r="F10">
-        <v>1.065689324313388</v>
+        <v>1.004973499920533</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.040579453998969</v>
+        <v>1.039979986910207</v>
       </c>
       <c r="J10">
-        <v>1.058228415995733</v>
+        <v>1.013082743611927</v>
       </c>
       <c r="K10">
-        <v>1.06161130672505</v>
+        <v>1.014677360226773</v>
       </c>
       <c r="L10">
-        <v>1.052285822262252</v>
+        <v>1.007824601057193</v>
       </c>
       <c r="M10">
-        <v>1.06903209554026</v>
+        <v>1.019253533189282</v>
       </c>
       <c r="N10">
-        <v>1.059731221726943</v>
+        <v>1.01452143731007</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.051036629709987</v>
+        <v>0.9786152692535698</v>
       </c>
       <c r="D11">
-        <v>1.057364494790368</v>
+        <v>0.9954314777724135</v>
       </c>
       <c r="E11">
-        <v>1.04805184942564</v>
+        <v>0.9887101777050971</v>
       </c>
       <c r="F11">
-        <v>1.064760254756787</v>
+        <v>0.9998398697371105</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.040372926629601</v>
+        <v>1.038422407628783</v>
       </c>
       <c r="J11">
-        <v>1.057491794429183</v>
+        <v>1.008905555608878</v>
       </c>
       <c r="K11">
-        <v>1.060854162535515</v>
+        <v>1.010440067084623</v>
       </c>
       <c r="L11">
-        <v>1.05157484233472</v>
+        <v>1.003848191077712</v>
       </c>
       <c r="M11">
-        <v>1.068223914472994</v>
+        <v>1.01476480651222</v>
       </c>
       <c r="N11">
-        <v>1.058993554073277</v>
+        <v>1.010338317220928</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.050676728819026</v>
+        <v>0.9764908752368225</v>
       </c>
       <c r="D12">
-        <v>1.057037879708207</v>
+        <v>0.9935857250463651</v>
       </c>
       <c r="E12">
-        <v>1.047741985787024</v>
+        <v>0.9869624300095435</v>
       </c>
       <c r="F12">
-        <v>1.064414996220993</v>
+        <v>0.9978992214141119</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.040295856396289</v>
+        <v>1.037830909482087</v>
       </c>
       <c r="J12">
-        <v>1.057217875297328</v>
+        <v>1.007324618975751</v>
       </c>
       <c r="K12">
-        <v>1.060572655843239</v>
+        <v>1.008836852897322</v>
       </c>
       <c r="L12">
-        <v>1.051310495643311</v>
+        <v>1.002343745637754</v>
       </c>
       <c r="M12">
-        <v>1.067923464170971</v>
+        <v>1.013066780001972</v>
       </c>
       <c r="N12">
-        <v>1.058719245944836</v>
+        <v>1.008755135476446</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.050753939554776</v>
+        <v>0.9769483948477592</v>
       </c>
       <c r="D13">
-        <v>1.057107947615643</v>
+        <v>0.9939831511180657</v>
       </c>
       <c r="E13">
-        <v>1.047808459771406</v>
+        <v>0.9873387412816944</v>
       </c>
       <c r="F13">
-        <v>1.064489062718199</v>
+        <v>0.9983170748390958</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.040312404394919</v>
+        <v>1.037958389459404</v>
       </c>
       <c r="J13">
-        <v>1.057276645769538</v>
+        <v>1.007665104263124</v>
       </c>
       <c r="K13">
-        <v>1.060633052268521</v>
+        <v>1.009182114697054</v>
       </c>
       <c r="L13">
-        <v>1.051367210616736</v>
+        <v>1.002667734058914</v>
       </c>
       <c r="M13">
-        <v>1.067987923446282</v>
+        <v>1.013432445667924</v>
       </c>
       <c r="N13">
-        <v>1.058778099877857</v>
+        <v>1.00909610429198</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.051006885036108</v>
+        <v>0.9784404856778923</v>
       </c>
       <c r="D14">
-        <v>1.057337500222503</v>
+        <v>0.9952795817827125</v>
       </c>
       <c r="E14">
-        <v>1.048026239230729</v>
+        <v>0.9885663414763235</v>
       </c>
       <c r="F14">
-        <v>1.064731718891918</v>
+        <v>0.9996801618501596</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.040366563267941</v>
+        <v>1.03837378393343</v>
       </c>
       <c r="J14">
-        <v>1.05746915844177</v>
+        <v>1.008775488198331</v>
       </c>
       <c r="K14">
-        <v>1.060830898634723</v>
+        <v>1.010308157251036</v>
       </c>
       <c r="L14">
-        <v>1.051552996627001</v>
+        <v>1.003724406470318</v>
       </c>
       <c r="M14">
-        <v>1.068199084408292</v>
+        <v>1.014625089154852</v>
       </c>
       <c r="N14">
-        <v>1.058970885940165</v>
+        <v>1.010208065099738</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C15">
-        <v>1.051162701671954</v>
+        <v>0.9793545169196969</v>
       </c>
       <c r="D15">
-        <v>1.057478912229639</v>
+        <v>0.9960739965328501</v>
       </c>
       <c r="E15">
-        <v>1.048160399401231</v>
+        <v>0.9893186147347937</v>
       </c>
       <c r="F15">
-        <v>1.064881205892096</v>
+        <v>1.000515437746151</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.040399885010505</v>
+        <v>1.038627977801586</v>
       </c>
       <c r="J15">
-        <v>1.057587731271919</v>
+        <v>1.009455668465331</v>
       </c>
       <c r="K15">
-        <v>1.060952762427884</v>
+        <v>1.010997991541789</v>
       </c>
       <c r="L15">
-        <v>1.051667431309524</v>
+        <v>1.004371751720445</v>
       </c>
       <c r="M15">
-        <v>1.068329153579021</v>
+        <v>1.015355766621449</v>
       </c>
       <c r="N15">
-        <v>1.059089627157333</v>
+        <v>1.010889211300735</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.05206914740861</v>
+        <v>0.9845964015629936</v>
       </c>
       <c r="D16">
-        <v>1.058301645344497</v>
+        <v>1.000633420644349</v>
       </c>
       <c r="E16">
-        <v>1.048940953714216</v>
+        <v>0.9936366975903677</v>
       </c>
       <c r="F16">
-        <v>1.065750961385504</v>
+        <v>1.005309624779005</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.040593110600924</v>
+        <v>1.040081595680318</v>
       </c>
       <c r="J16">
-        <v>1.058277260642248</v>
+        <v>1.013355991121379</v>
       </c>
       <c r="K16">
-        <v>1.061661518362744</v>
+        <v>1.014954603749244</v>
       </c>
       <c r="L16">
-        <v>1.052332971867687</v>
+        <v>1.008084783099199</v>
       </c>
       <c r="M16">
-        <v>1.069085696270805</v>
+        <v>1.019547271532442</v>
       </c>
       <c r="N16">
-        <v>1.059780135738459</v>
+        <v>1.014795072862328</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.052637324832394</v>
+        <v>0.9878184191253119</v>
       </c>
       <c r="D17">
-        <v>1.058817424032764</v>
+        <v>1.003438915164013</v>
       </c>
       <c r="E17">
-        <v>1.049430300833589</v>
+        <v>0.9962941310239073</v>
       </c>
       <c r="F17">
-        <v>1.066296255986814</v>
+        <v>1.008259792654497</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.040713681953296</v>
+        <v>1.040971360876368</v>
       </c>
       <c r="J17">
-        <v>1.058709246074168</v>
+        <v>1.015752902358334</v>
       </c>
       <c r="K17">
-        <v>1.062105627295932</v>
+        <v>1.017386915220732</v>
       </c>
       <c r="L17">
-        <v>1.052749994877568</v>
+        <v>1.010367451055677</v>
       </c>
       <c r="M17">
-        <v>1.06955980536431</v>
+        <v>1.022124531314455</v>
       </c>
       <c r="N17">
-        <v>1.060212734639242</v>
+        <v>1.017195387988169</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.052968586908785</v>
+        <v>0.9896749979546627</v>
       </c>
       <c r="D18">
-        <v>1.059118162682963</v>
+        <v>1.005056504443477</v>
       </c>
       <c r="E18">
-        <v>1.049715631652577</v>
+        <v>0.9978265029566303</v>
       </c>
       <c r="F18">
-        <v>1.066614218087229</v>
+        <v>1.009960877926825</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.040783781257923</v>
+        <v>1.041482685951563</v>
       </c>
       <c r="J18">
-        <v>1.0589610235889</v>
+        <v>1.017133827399063</v>
       </c>
       <c r="K18">
-        <v>1.062364499015788</v>
+        <v>1.018788523145193</v>
       </c>
       <c r="L18">
-        <v>1.052993075623433</v>
+        <v>1.011682859555328</v>
       </c>
       <c r="M18">
-        <v>1.069836184685141</v>
+        <v>1.023609860550402</v>
       </c>
       <c r="N18">
-        <v>1.060464869706923</v>
+        <v>1.01857827410085</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.053081514132255</v>
+        <v>0.9903042754442969</v>
       </c>
       <c r="D19">
-        <v>1.059220688923812</v>
+        <v>1.005604945968243</v>
       </c>
       <c r="E19">
-        <v>1.049812905777699</v>
+        <v>0.9983460767354047</v>
       </c>
       <c r="F19">
-        <v>1.066722618330384</v>
+        <v>1.010537642419355</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.040807644699909</v>
+        <v>1.041655761246133</v>
       </c>
       <c r="J19">
-        <v>1.05904684075567</v>
+        <v>1.01760184485892</v>
       </c>
       <c r="K19">
-        <v>1.062452738985767</v>
+        <v>1.019263598943446</v>
       </c>
       <c r="L19">
-        <v>1.053075932588867</v>
+        <v>1.012128723164336</v>
       </c>
       <c r="M19">
-        <v>1.069930395831292</v>
+        <v>1.024113346729477</v>
       </c>
       <c r="N19">
-        <v>1.060550808743914</v>
+        <v>1.019046956199183</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.052576379946071</v>
+        <v>0.9874751049648318</v>
       </c>
       <c r="D20">
-        <v>1.058762096900006</v>
+        <v>1.003139875765077</v>
       </c>
       <c r="E20">
-        <v>1.049377808597445</v>
+        <v>0.9960108576491825</v>
       </c>
       <c r="F20">
-        <v>1.066237761321375</v>
+        <v>1.007945324113401</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.040700769375926</v>
+        <v>1.04087669602824</v>
       </c>
       <c r="J20">
-        <v>1.058662918051261</v>
+        <v>1.015497526806508</v>
       </c>
       <c r="K20">
-        <v>1.062057996180687</v>
+        <v>1.017127738024116</v>
       </c>
       <c r="L20">
-        <v>1.052705269017414</v>
+        <v>1.01012421587942</v>
       </c>
       <c r="M20">
-        <v>1.069508954585146</v>
+        <v>1.021849888654622</v>
       </c>
       <c r="N20">
-        <v>1.060166340825228</v>
+        <v>1.016939649773768</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.050932405455476</v>
+        <v>0.9780022118302057</v>
       </c>
       <c r="D21">
-        <v>1.057269907488263</v>
+        <v>0.9948987286226125</v>
       </c>
       <c r="E21">
-        <v>1.047962112980026</v>
+        <v>0.9882057011581391</v>
       </c>
       <c r="F21">
-        <v>1.064660267181719</v>
+        <v>0.9992797236652181</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.040350624692007</v>
+        <v>1.038251825818546</v>
       </c>
       <c r="J21">
-        <v>1.05741247672131</v>
+        <v>1.008449338276113</v>
       </c>
       <c r="K21">
-        <v>1.060772645295603</v>
+        <v>1.009977394966724</v>
       </c>
       <c r="L21">
-        <v>1.051498294412969</v>
+        <v>1.003414019113096</v>
       </c>
       <c r="M21">
-        <v>1.068136909874776</v>
+        <v>1.014274754763462</v>
       </c>
       <c r="N21">
-        <v>1.05891412372516</v>
+        <v>1.009881452007221</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.049897407195317</v>
+        <v>0.9718177097171984</v>
       </c>
       <c r="D22">
-        <v>1.056330712143423</v>
+        <v>0.9895290180959967</v>
       </c>
       <c r="E22">
-        <v>1.047071098765994</v>
+        <v>0.9831216434540614</v>
       </c>
       <c r="F22">
-        <v>1.063667501072309</v>
+        <v>0.993634169501002</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.040128409809463</v>
+        <v>1.036526038586353</v>
       </c>
       <c r="J22">
-        <v>1.056624506934358</v>
+        <v>1.003846696446427</v>
       </c>
       <c r="K22">
-        <v>1.059962931619202</v>
+        <v>1.0053108007469</v>
       </c>
       <c r="L22">
-        <v>1.050737931745628</v>
+        <v>0.9990350466123343</v>
       </c>
       <c r="M22">
-        <v>1.067272767829404</v>
+        <v>1.009332798412443</v>
       </c>
       <c r="N22">
-        <v>1.05812503493073</v>
+        <v>1.005272273898207</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.050446211248638</v>
+        <v>0.9751191156436897</v>
       </c>
       <c r="D23">
-        <v>1.056828693717137</v>
+        <v>0.9923944182856639</v>
       </c>
       <c r="E23">
-        <v>1.047543530267753</v>
+        <v>0.9858344570108521</v>
       </c>
       <c r="F23">
-        <v>1.064193875591391</v>
+        <v>0.9966467002512601</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.040246406430199</v>
+        <v>1.037448395806006</v>
       </c>
       <c r="J23">
-        <v>1.057042393908485</v>
+        <v>1.006303737690628</v>
       </c>
       <c r="K23">
-        <v>1.060392325997131</v>
+        <v>1.007801719864525</v>
       </c>
       <c r="L23">
-        <v>1.05114115720049</v>
+        <v>1.001372402334076</v>
       </c>
       <c r="M23">
-        <v>1.067731008266172</v>
+        <v>1.011970521314081</v>
       </c>
       <c r="N23">
-        <v>1.058543515352292</v>
+        <v>1.007732804422801</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.052603918768945</v>
+        <v>0.9876303039747223</v>
       </c>
       <c r="D24">
-        <v>1.058787097178689</v>
+        <v>1.00327505672349</v>
       </c>
       <c r="E24">
-        <v>1.049401527879768</v>
+        <v>0.9961389110968861</v>
       </c>
       <c r="F24">
-        <v>1.066264192849137</v>
+        <v>1.008087479575839</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.040706604718223</v>
+        <v>1.040919494602075</v>
       </c>
       <c r="J24">
-        <v>1.058683852285078</v>
+        <v>1.01561297285789</v>
       </c>
       <c r="K24">
-        <v>1.062079519155486</v>
+        <v>1.0172449017681</v>
       </c>
       <c r="L24">
-        <v>1.052725479208419</v>
+        <v>1.010234172768986</v>
       </c>
       <c r="M24">
-        <v>1.069531932359646</v>
+        <v>1.021974043115015</v>
       </c>
       <c r="N24">
-        <v>1.060187304788058</v>
+        <v>1.017055259771784</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.055102107777775</v>
+        <v>1.001264164829578</v>
       </c>
       <c r="D25">
-        <v>1.061055563619789</v>
+        <v>1.015170507303234</v>
       </c>
       <c r="E25">
-        <v>1.051553840453558</v>
+        <v>1.00741017427545</v>
       </c>
       <c r="F25">
-        <v>1.068662817196399</v>
+        <v>1.020598400881007</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.04123170397125</v>
+        <v>1.04464939091026</v>
       </c>
       <c r="J25">
-        <v>1.060581148449073</v>
+        <v>1.025749059554633</v>
       </c>
       <c r="K25">
-        <v>1.064030781295316</v>
+        <v>1.027537798375609</v>
       </c>
       <c r="L25">
-        <v>1.05455766926246</v>
+        <v>1.019894535716055</v>
       </c>
       <c r="M25">
-        <v>1.071615527434336</v>
+        <v>1.032885152240206</v>
       </c>
       <c r="N25">
-        <v>1.062087295330229</v>
+        <v>1.027205740874263</v>
       </c>
     </row>
   </sheetData>
